--- a/biology/Zoologie/Capeyorkia_vulpecula/Capeyorkia_vulpecula.xlsx
+++ b/biology/Zoologie/Capeyorkia_vulpecula/Capeyorkia_vulpecula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Capeyorkia vulpecula est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Capeyorkia vulpecula est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie[1]. Elle se rencontre dans le péninsule du cap York[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie. Elle se rencontre dans le péninsule du cap York.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle décrit par Richardson en 2016 mesure 3,16 mm de long sur 2,48 mm et l'abdomen 3,28 mm de long[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle décrit par Richardson en 2016 mesure 3,16 mm de long sur 2,48 mm et l'abdomen 3,28 mm de long.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Marptusa vulpecula par Thorell en 1881. Elle est placée dans le genre Trite par Simon en 1903[3] puis dans le genre Capeyorkia par Richardson en 2016[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Marptusa vulpecula par Thorell en 1881. Elle est placée dans le genre Trite par Simon en 1903 puis dans le genre Capeyorkia par Richardson en 2016.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Thorell, 1881 : « Studi sui Ragni Malesi e Papuani. III. Ragni dell'Austro Malesia e del Capo York, conservati nel Museo civico di storia naturale di Genova. » Annali del Museo Civico di Storia Naturale di Genova, vol. 17, p. 1-727 (texte intégral).</t>
         </is>
